--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_308__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_308__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,22 +5417,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>1.17786169052124</c:v>
+                  <c:v>1.177869081497192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1795954257249832</c:v>
+                  <c:v>0.1795991659164429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.82861709594727</c:v>
+                  <c:v>47.82861328125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.17613983154297</c:v>
+                  <c:v>45.1761360168457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.91921615600586</c:v>
+                  <c:v>41.91920852661133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.061221122741699</c:v>
+                  <c:v>3.061219215393066</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.276039838790894</c:v>
@@ -5441,7 +5441,7 @@
                   <c:v>1.090449094772339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8555006384849548</c:v>
+                  <c:v>0.8555025458335876</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>34.71691513061523</c:v>
@@ -5456,7 +5456,7 @@
                   <c:v>0.8857347369194031</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.8583855032920837</c:v>
+                  <c:v>0.8583911061286926</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44.56124114990234</c:v>
@@ -5471,13 +5471,13 @@
                   <c:v>46.06315994262695</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.671197175979614</c:v>
+                  <c:v>1.671195268630981</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.980313777923584</c:v>
+                  <c:v>-0.9803119301795959</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7497943043708801</c:v>
+                  <c:v>0.7497887015342712</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.3331097364425659</c:v>
@@ -5486,7 +5486,7 @@
                   <c:v>46.3001823425293</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.125943660736084</c:v>
+                  <c:v>1.125939965248108</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.8913626670837402</c:v>
@@ -5507,55 +5507,55 @@
                   <c:v>29.03767585754395</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7509933710098267</c:v>
+                  <c:v>0.7509877681732178</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.864949643611908</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46.49482727050781</c:v>
+                  <c:v>46.49483108520508</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9052647948265076</c:v>
+                  <c:v>0.9052629470825195</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.7372367382049561</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.02767181396484</c:v>
+                  <c:v>40.02766799926758</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.120416402816772</c:v>
+                  <c:v>1.120418310165405</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.83202362060547</c:v>
+                  <c:v>16.83202171325684</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>53.40668869018555</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1284457594156265</c:v>
+                  <c:v>0.1284476220607758</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42.36918258666992</c:v>
+                  <c:v>42.36918640136719</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.450880527496338</c:v>
+                  <c:v>2.450878620147705</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.3151181042194366</c:v>
+                  <c:v>-0.3151237070560455</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5612739324569702</c:v>
+                  <c:v>0.5612720847129822</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.2162425369024277</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1821576654911041</c:v>
+                  <c:v>0.1821595281362534</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.460931777954102</c:v>
+                  <c:v>6.460933685302734</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.05978744477033615</c:v>
@@ -5564,73 +5564,73 @@
                   <c:v>46.80784225463867</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.3245539963245392</c:v>
+                  <c:v>-0.3245521485805511</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3844980895519257</c:v>
+                  <c:v>0.3844962418079376</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.388914465904236</c:v>
+                  <c:v>1.388920068740845</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1148065850138664</c:v>
+                  <c:v>0.1148028522729874</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.354277104139328</c:v>
+                  <c:v>0.3542752265930176</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.8697309494018555</c:v>
+                  <c:v>0.8697384595870972</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>4.36336088180542</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.311727911233902</c:v>
+                  <c:v>0.3117241561412811</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.9718979001045227</c:v>
+                  <c:v>-0.9718998074531555</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.9962913990020752</c:v>
+                  <c:v>0.996293306350708</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.4460123479366302</c:v>
+                  <c:v>0.4460104703903198</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.9845842123031616</c:v>
+                  <c:v>0.9845860600471497</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.4613503515720367</c:v>
+                  <c:v>0.4613484740257263</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.3252831399440765</c:v>
+                  <c:v>-0.3252812922000885</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.499915599822998</c:v>
+                  <c:v>2.4999098777771</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.099497079849243</c:v>
+                  <c:v>-1.099500775337219</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.059055089950562</c:v>
+                  <c:v>1.059051394462585</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.732981264591217</c:v>
+                  <c:v>0.732979416847229</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>47.02687454223633</c:v>
+                  <c:v>47.02688217163086</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.150409936904907</c:v>
+                  <c:v>1.15041172504425</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.131980061531067</c:v>
+                  <c:v>-1.131978154182434</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.4011955559253693</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.05556552857160568</c:v>
+                  <c:v>-0.05556179955601692</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.354415088891983</c:v>
@@ -5642,49 +5642,49 @@
                   <c:v>44.90563583374023</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.06904245913028717</c:v>
+                  <c:v>0.06904059648513794</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>-0.2606994211673737</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.99972128868103</c:v>
+                  <c:v>1.999723196029663</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.7242595553398132</c:v>
+                  <c:v>0.7242633104324341</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.7391948103904724</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.4151144325733185</c:v>
+                  <c:v>0.4151181578636169</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.3212943375110626</c:v>
+                  <c:v>-0.3212924599647522</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.3557353913784027</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.7757859230041504</c:v>
+                  <c:v>0.7757915258407593</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.5105811357498169</c:v>
+                  <c:v>0.5105829834938049</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13.07691764831543</c:v>
+                  <c:v>13.0769157409668</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.5842893123626709</c:v>
+                  <c:v>-0.5842874646186829</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.138521283864975</c:v>
+                  <c:v>0.1385194212198257</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>0.5033158659934998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.3690239489078522</c:v>
+                  <c:v>0.3690221011638641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.17786169052124</v>
+        <v>1.177869081497192</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1795954257249832</v>
+        <v>0.1795991659164429</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6443,7 +6443,7 @@
         <v>48.4769</v>
       </c>
       <c r="F4">
-        <v>47.82861709594727</v>
+        <v>47.82861328125</v>
       </c>
       <c r="G4">
         <v>72</v>
@@ -6475,7 +6475,7 @@
         <v>46.4901</v>
       </c>
       <c r="F5">
-        <v>45.17613983154297</v>
+        <v>45.1761360168457</v>
       </c>
       <c r="G5">
         <v>72</v>
@@ -6507,7 +6507,7 @@
         <v>45.684</v>
       </c>
       <c r="F6">
-        <v>41.91921615600586</v>
+        <v>41.91920852661133</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>3.061221122741699</v>
+        <v>3.061219215393066</v>
       </c>
       <c r="G7">
         <v>72</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8555006384849548</v>
+        <v>0.8555025458335876</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8583855032920837</v>
+        <v>0.8583911061286926</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.671197175979614</v>
+        <v>1.671195268630981</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.980313777923584</v>
+        <v>-0.9803119301795959</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>0.7497943043708801</v>
+        <v>0.7497887015342712</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.125943660736084</v>
+        <v>1.125939965248108</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.7509933710098267</v>
+        <v>0.7509877681732178</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>46.49482727050781</v>
+        <v>46.49483108520508</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.9052647948265076</v>
+        <v>0.9052629470825195</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>48.8804</v>
       </c>
       <c r="F37">
-        <v>40.02767181396484</v>
+        <v>40.02766799926758</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.120416402816772</v>
+        <v>1.120418310165405</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>16.83202362060547</v>
+        <v>16.83202171325684</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.1284457594156265</v>
+        <v>0.1284476220607758</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>42.36918258666992</v>
+        <v>42.36918640136719</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2.450880527496338</v>
+        <v>2.450878620147705</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.3151181042194366</v>
+        <v>-0.3151237070560455</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.5612739324569702</v>
+        <v>0.5612720847129822</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.1821576654911041</v>
+        <v>0.1821595281362534</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>6.460931777954102</v>
+        <v>6.460933685302734</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-0.3245539963245392</v>
+        <v>-0.3245521485805511</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.3844980895519257</v>
+        <v>0.3844962418079376</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.388914465904236</v>
+        <v>1.388920068740845</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.1148065850138664</v>
+        <v>0.1148028522729874</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.354277104139328</v>
+        <v>0.3542752265930176</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.8697309494018555</v>
+        <v>0.8697384595870972</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.311727911233902</v>
+        <v>0.3117241561412811</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.9718979001045227</v>
+        <v>-0.9718998074531555</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.9962913990020752</v>
+        <v>0.996293306350708</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.4460123479366302</v>
+        <v>0.4460104703903198</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.9845842123031616</v>
+        <v>0.9845860600471497</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.4613503515720367</v>
+        <v>0.4613484740257263</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.3252831399440765</v>
+        <v>-0.3252812922000885</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>2.499915599822998</v>
+        <v>2.4999098777771</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-1.099497079849243</v>
+        <v>-1.099500775337219</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.059055089950562</v>
+        <v>1.059051394462585</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.732981264591217</v>
+        <v>0.732979416847229</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.8632</v>
       </c>
       <c r="F69">
-        <v>47.02687454223633</v>
+        <v>47.02688217163086</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.150409936904907</v>
+        <v>1.15041172504425</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-1.131980061531067</v>
+        <v>-1.131978154182434</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-0.05556552857160568</v>
+        <v>-0.05556179955601692</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.06904245913028717</v>
+        <v>0.06904059648513794</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.99972128868103</v>
+        <v>1.999723196029663</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.7242595553398132</v>
+        <v>0.7242633104324341</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.4151144325733185</v>
+        <v>0.4151181578636169</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-0.3212943375110626</v>
+        <v>-0.3212924599647522</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.7757859230041504</v>
+        <v>0.7757915258407593</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.5105811357498169</v>
+        <v>0.5105829834938049</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>13.07691764831543</v>
+        <v>13.0769157409668</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.5842893123626709</v>
+        <v>-0.5842874646186829</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.138521283864975</v>
+        <v>0.1385194212198257</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.3690239489078522</v>
+        <v>0.3690221011638641</v>
       </c>
     </row>
     <row r="92" spans="1:6">
